--- a/raw/Brooklyn/Brooklyn College Metadata.xlsx
+++ b/raw/Brooklyn/Brooklyn College Metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kspann/Desktop/HMO Power Bi/raw/Brooklyn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15630665-B4B8-0741-BA8C-FE12E3EC98C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99072F6-70C5-4D49-A6F4-CAEAA14391B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="64700" yWindow="660" windowWidth="34160" windowHeight="27980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="64840" yWindow="500" windowWidth="34000" windowHeight="28020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -712,8 +712,8 @@
   </sheetPr>
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
